--- a/Data CSV/group_instansi.xlsx
+++ b/Data CSV/group_instansi.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_app\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC4C4A9-A031-4A13-BE38-DAD25B7B348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E662BA-CD7F-4319-9802-960CC1F968C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="grup_instansi" sheetId="1" r:id="rId1"/>
+    <sheet name="instansi" sheetId="2" r:id="rId2"/>
+    <sheet name="domain" sheetId="3" r:id="rId3"/>
+    <sheet name="aspek" sheetId="4" r:id="rId4"/>
+    <sheet name="indikator" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -217,16 +221,322 @@
   </si>
   <si>
     <t>Pemerintah Kota Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Aceh</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Bali</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Banten</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Bengkulu</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Gorontalo</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Jakarta</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Jambi</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Jawa Barat</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Jawa Timur</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Kalimantan Utara</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Kepulauan Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Lampung</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Maluku</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Maluku Utara</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Nusa Tengara Barat</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Nusa Tengara Timur</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Riau</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sulawesi Tenggara</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sumatra Barat</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Sumatra Utara</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi Yogyakarta</t>
+  </si>
+  <si>
+    <t>Domain 1</t>
+  </si>
+  <si>
+    <t>Domain 2</t>
+  </si>
+  <si>
+    <t>Domain 3</t>
+  </si>
+  <si>
+    <t>Domain 4</t>
+  </si>
+  <si>
+    <t>Bobot</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>INSERT INTO `domain`(`id`, `nama`, `bobot`) VALUES</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>bobot</t>
+  </si>
+  <si>
+    <t>Aspek 1</t>
+  </si>
+  <si>
+    <t>Aspek 2</t>
+  </si>
+  <si>
+    <t>Aspek 3</t>
+  </si>
+  <si>
+    <t>Aspek 4</t>
+  </si>
+  <si>
+    <t>Aspek 5</t>
+  </si>
+  <si>
+    <t>Aspek 6</t>
+  </si>
+  <si>
+    <t>Aspek 7</t>
+  </si>
+  <si>
+    <t>Aspek 8</t>
+  </si>
+  <si>
+    <t>INSERT INTO `aspek`(`id`, `nama`, `domain`, `bobot`) VALUES</t>
+  </si>
+  <si>
+    <t>Aspek</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>I16</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>I27</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>I29</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>I32</t>
+  </si>
+  <si>
+    <t>I33</t>
+  </si>
+  <si>
+    <t>I34</t>
+  </si>
+  <si>
+    <t>I35</t>
+  </si>
+  <si>
+    <t>I36</t>
+  </si>
+  <si>
+    <t>I37</t>
+  </si>
+  <si>
+    <t>I38</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I40</t>
+  </si>
+  <si>
+    <t>I41</t>
+  </si>
+  <si>
+    <t>I42</t>
+  </si>
+  <si>
+    <t>I43</t>
+  </si>
+  <si>
+    <t>I44</t>
+  </si>
+  <si>
+    <t>I45</t>
+  </si>
+  <si>
+    <t>I46</t>
+  </si>
+  <si>
+    <t>I47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO `indikator`(`id`, `aspek`, `nama`, `bobot`) VALUES </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -253,8 +563,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDCD167-DE8C-4592-B34E-E9CE336BF3AE}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,14 +920,14 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A37" si="0">"gi20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A3)-ROW($A$1)),"0"),5)</f>
+        <f t="shared" ref="A3:A66" si="0">"gi20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A3)-ROW($A$1)),"0"),5)</f>
         <v>gi2023110400002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C37" si="1">"('"&amp;A3&amp;"','"&amp;B3&amp;"'),"</f>
+        <f t="shared" ref="C3:C66" si="1">"('"&amp;A3&amp;"','"&amp;B3&amp;"'),"</f>
         <v>('gi2023110400002','Instansi Lainnya Pusat'),</v>
       </c>
     </row>
@@ -1061,131 +1374,1994 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400037</v>
+      </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400037','Pemerintah Kota Jambi'),</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400038</v>
+      </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400038','Pemerintah Kota Jawa Barat'),</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400039</v>
+      </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400039','Pemerintah Kota Jawa Tengah'),</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400040</v>
+      </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400040','Pemerintah Kota Jawa Timur'),</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400041</v>
+      </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400041','Pemerintah Kota Kalimantan Barat'),</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400042</v>
+      </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400042','Pemerintah Kota Kalimantan Selatan'),</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400043</v>
+      </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400043','Pemerintah Kota Kalimantan Tengah'),</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400044</v>
+      </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400044','Pemerintah Kota Kalimantan Timur'),</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400045</v>
+      </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400045','Pemerintah Kota Kalimantan Utara'),</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400046</v>
+      </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400046','Pemerintah Kota Kepulauan Bangka Belitung'),</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400047</v>
+      </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400047','Pemerintah Kota Lampung'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400048</v>
+      </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400048','Pemerintah Kota Maluku'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400049</v>
+      </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400049','Pemerintah Kota Maluku Utara'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400050</v>
+      </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400050','Pemerintah Kota Nusa Tengara Barat'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400051</v>
+      </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400051','Pemerintah Kota Papua'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400052</v>
+      </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400052','Pemerintah Kota Papua Barat'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400053</v>
+      </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400053','Pemerintah Kota Riau'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400054</v>
+      </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400054','Pemerintah Kota Sulawesi Selatan'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400055</v>
+      </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400055','Pemerintah Kota Sulawesi Tengah'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400056</v>
+      </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400056','Pemerintah Kota Sulawesi Tenggara'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400057</v>
+      </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400057','Pemerintah Kota Sulawesi Utara'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400058</v>
+      </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400058','Pemerintah Kota Sumatra Barat'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400059</v>
+      </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400059','Pemerintah Kota Sumatra Selatan'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400060</v>
+      </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400060','Pemerintah Kota Sumatra Utara'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400061</v>
+      </c>
       <c r="B62" t="s">
         <v>63</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400061','Pemerintah Kota Yogyakarta'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400062','Pemerintah Provinsi Aceh'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400063','Pemerintah Provinsi Bali'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400064','Pemerintah Provinsi Banten'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>gi2023110400065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>('gi2023110400065','Pemerintah Provinsi Bengkulu'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A91" si="2">"gi20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A67)-ROW($A$1)),"0"),5)</f>
+        <v>gi2023110400066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C91" si="3">"('"&amp;A67&amp;"','"&amp;B67&amp;"'),"</f>
+        <v>('gi2023110400066','Pemerintah Provinsi Gorontalo'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400067</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400067','Pemerintah Provinsi Jakarta'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400068</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400068','Pemerintah Provinsi Jambi'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400069','Pemerintah Provinsi Jawa Barat'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400070','Pemerintah Provinsi Jawa Tengah'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400071</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400071','Pemerintah Provinsi Jawa Timur'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400072</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400072','Pemerintah Provinsi Kalimantan Selatan'),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400073</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400073','Pemerintah Provinsi Kalimantan Tengah'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400074</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400074','Pemerintah Provinsi Kalimantan Timur'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400075</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400075','Pemerintah Provinsi Kalimantan Utara'),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400076</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400076','Pemerintah Provinsi Kepulauan Bangka Belitung'),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400077</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400077','Pemerintah Provinsi Lampung'),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400078</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400078','Pemerintah Provinsi Maluku'),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400079</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400079','Pemerintah Provinsi Maluku Utara'),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400080','Pemerintah Provinsi Nusa Tengara Barat'),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400081</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400081','Pemerintah Provinsi Nusa Tengara Timur'),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400082</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400082','Pemerintah Provinsi Riau'),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400083</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400083','Pemerintah Provinsi Sulawesi Barat'),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400084</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400084','Pemerintah Provinsi Sulawesi Selatan'),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400085</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400085','Pemerintah Provinsi Sulawesi Tengah'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400086</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400086','Pemerintah Provinsi Sulawesi Tenggara'),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400087</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400087','Pemerintah Provinsi Sulawesi Utara'),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400088</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400088','Pemerintah Provinsi Sumatra Barat'),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400089</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400089','Pemerintah Provinsi Sumatra Utara'),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="2"/>
+        <v>gi2023110400090</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>('gi2023110400090','Pemerintah Provinsi Yogyakarta'),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06365F83-EE82-4A4F-85D6-D04380E57CAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC1F24-0628-4A26-8699-87E031698904}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"d20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A2)-ROW($A$1)),"0"),5)</f>
+        <v>d2023110400001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;SUBSTITUTE(C2,",",".")&amp;"'),"</f>
+        <v>('d2023110400001','Domain 1','13'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A5" si="0">"d20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A3)-ROW($A$1)),"0"),5)</f>
+        <v>d2023110400002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="1">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;SUBSTITUTE(C3,",",".")&amp;"'),"</f>
+        <v>('d2023110400002','Domain 2','25'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>d2023110400003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>('d2023110400003','Domain 3','16.5'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>d2023110400004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>('d2023110400004','Domain 4','14.5'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40786EE-2084-4767-8AA5-B1A19D186E9F}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"a20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A2)-ROW($A$1)),"0"),5)</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="str">
+        <f>domain!A2</f>
+        <v>d2023110400001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;SUBSTITUTE(D2,",",".")&amp;"'),"</f>
+        <v>('a2023110400001','Aspek 1','d2023110400001','13'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A9" si="0">"a20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A3)-ROW($A$1)),"0"),5)</f>
+        <v>a2023110400002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="str">
+        <f>domain!A3</f>
+        <v>d2023110400002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="1">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;SUBSTITUTE(D3,",",".")&amp;"'),"</f>
+        <v>('a2023110400002','Aspek 2','d2023110400002','10'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>a2023110400003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="str">
+        <f>domain!A3</f>
+        <v>d2023110400002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>('a2023110400003','Aspek 3','d2023110400002','10'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>a2023110400004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="str">
+        <f>domain!A3</f>
+        <v>d2023110400002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>('a2023110400004','Aspek 4','d2023110400002','5'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>a2023110400005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="str">
+        <f>domain!A4</f>
+        <v>d2023110400003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>('a2023110400005','Aspek 5','d2023110400003','12'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>a2023110400006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="str">
+        <f>domain!A4</f>
+        <v>d2023110400003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>('a2023110400006','Aspek 6','d2023110400003','4.5'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>a2023110400007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="str">
+        <f>domain!A5</f>
+        <v>d2023110400004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>('a2023110400007','Aspek 7','d2023110400004','27.5'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>a2023110400008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="str">
+        <f>domain!A5</f>
+        <v>d2023110400004</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>('a2023110400008','Aspek 8','d2023110400004','18'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1EB52E-1B19-42ED-AFDA-DFAD720665DF}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"in20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A2)-ROW($A$1)),"0"),5)</f>
+        <v>in2023110400001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;SUBSTITUTE(D2,",",".")&amp;"'),"</f>
+        <v>('in2023110400001','a2023110400001','I1','1.3'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A48" si="0">"in20231104"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A3)-ROW($A$1)),"0"),5)</f>
+        <v>in2023110400002</v>
+      </c>
+      <c r="B3" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E48" si="1">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;SUBSTITUTE(D3,",",".")&amp;"'),"</f>
+        <v>('in2023110400002','a2023110400001','I2','1.3'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400003</v>
+      </c>
+      <c r="B4" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400003','a2023110400001','I3','1.3'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400004</v>
+      </c>
+      <c r="B5" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400004','a2023110400001','I4','1.3'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400005</v>
+      </c>
+      <c r="B6" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400005','a2023110400001','I5','1.3'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400006</v>
+      </c>
+      <c r="B7" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400006','a2023110400001','I6','1.3'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400007</v>
+      </c>
+      <c r="B8" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400007','a2023110400001','I7','1.3'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400008</v>
+      </c>
+      <c r="B9" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400008','a2023110400001','I8','1.3'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400009</v>
+      </c>
+      <c r="B10" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400009','a2023110400001','I9','1.3'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400010</v>
+      </c>
+      <c r="B11" t="str">
+        <f>aspek!$A$2</f>
+        <v>a2023110400001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400010','a2023110400001','I10','1.3'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400011</v>
+      </c>
+      <c r="B12" t="str">
+        <f>aspek!$A$3</f>
+        <v>a2023110400002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400011','a2023110400002','I11','2.5'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400012</v>
+      </c>
+      <c r="B13" t="str">
+        <f>aspek!$A$3</f>
+        <v>a2023110400002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400012','a2023110400002','I12','2.5'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400013</v>
+      </c>
+      <c r="B14" t="str">
+        <f>aspek!$A$3</f>
+        <v>a2023110400002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400013','a2023110400002','I13','2.5'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400014</v>
+      </c>
+      <c r="B15" t="str">
+        <f>aspek!$A$3</f>
+        <v>a2023110400002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400014','a2023110400002','I14','2.5'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400015</v>
+      </c>
+      <c r="B16" t="str">
+        <f>aspek!$A$4</f>
+        <v>a2023110400003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400015','a2023110400003','I15','2.5'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400016</v>
+      </c>
+      <c r="B17" t="str">
+        <f>aspek!$A$4</f>
+        <v>a2023110400003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400016','a2023110400003','I16','2.5'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400017</v>
+      </c>
+      <c r="B18" t="str">
+        <f>aspek!$A$4</f>
+        <v>a2023110400003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400017','a2023110400003','I17','2.5'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400018</v>
+      </c>
+      <c r="B19" t="str">
+        <f>aspek!$A$4</f>
+        <v>a2023110400003</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400018','a2023110400003','I18','2.5'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400019</v>
+      </c>
+      <c r="B20" t="str">
+        <f>aspek!$A$5</f>
+        <v>a2023110400004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400019','a2023110400004','I19','2.5'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400020</v>
+      </c>
+      <c r="B21" t="str">
+        <f>aspek!$A$5</f>
+        <v>a2023110400004</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400020','a2023110400004','I20','2.5'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400021</v>
+      </c>
+      <c r="B22" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400021','a2023110400005','I21','1.5'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400022</v>
+      </c>
+      <c r="B23" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400022','a2023110400005','I22','1.5'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400023</v>
+      </c>
+      <c r="B24" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400023','a2023110400005','I23','1.5'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400024</v>
+      </c>
+      <c r="B25" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400024','a2023110400005','I24','1.5'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400025</v>
+      </c>
+      <c r="B26" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400025','a2023110400005','I25','1.5'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400026</v>
+      </c>
+      <c r="B27" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400026','a2023110400005','I26','1.5'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400027</v>
+      </c>
+      <c r="B28" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400027','a2023110400005','I27','1.5'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400028</v>
+      </c>
+      <c r="B29" t="str">
+        <f>aspek!$A$6</f>
+        <v>a2023110400005</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400028','a2023110400005','I28','1.5'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400029</v>
+      </c>
+      <c r="B30" t="str">
+        <f>aspek!$A$7</f>
+        <v>a2023110400006</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400029','a2023110400006','I29','1.5'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400030</v>
+      </c>
+      <c r="B31" t="str">
+        <f>aspek!$A$7</f>
+        <v>a2023110400006</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400030','a2023110400006','I30','1.5'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400031</v>
+      </c>
+      <c r="B32" t="str">
+        <f>aspek!$A$7</f>
+        <v>a2023110400006</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400031','a2023110400006','I31','1.5'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400032</v>
+      </c>
+      <c r="B33" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400032','a2023110400007','I32','2.75'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400033</v>
+      </c>
+      <c r="B34" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400033','a2023110400007','I33','2.75'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400034</v>
+      </c>
+      <c r="B35" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400034','a2023110400007','I34','2.75'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400035</v>
+      </c>
+      <c r="B36" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400035','a2023110400007','I35','2.75'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400036</v>
+      </c>
+      <c r="B37" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400036','a2023110400007','I36','2.75'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400037</v>
+      </c>
+      <c r="B38" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400037','a2023110400007','I37','2.75'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400038</v>
+      </c>
+      <c r="B39" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400038','a2023110400007','I38','2.75'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400039</v>
+      </c>
+      <c r="B40" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400039','a2023110400007','I39','2.75'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400040</v>
+      </c>
+      <c r="B41" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400040','a2023110400007','I40','2.75'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400041</v>
+      </c>
+      <c r="B42" t="str">
+        <f>aspek!$A$8</f>
+        <v>a2023110400007</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400041','a2023110400007','I41','2.75'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400042</v>
+      </c>
+      <c r="B43" t="str">
+        <f>aspek!$A$9</f>
+        <v>a2023110400008</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400042','a2023110400008','I42','3'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400043</v>
+      </c>
+      <c r="B44" t="str">
+        <f>aspek!$A$9</f>
+        <v>a2023110400008</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400043','a2023110400008','I43','3'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400044</v>
+      </c>
+      <c r="B45" t="str">
+        <f>aspek!$A$9</f>
+        <v>a2023110400008</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400044','a2023110400008','I44','3'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400045</v>
+      </c>
+      <c r="B46" t="str">
+        <f>aspek!$A$9</f>
+        <v>a2023110400008</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400045','a2023110400008','I45','3'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400046</v>
+      </c>
+      <c r="B47" t="str">
+        <f>aspek!$A$9</f>
+        <v>a2023110400008</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400046','a2023110400008','I46','3'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>in2023110400047</v>
+      </c>
+      <c r="B48" t="str">
+        <f>aspek!$A$9</f>
+        <v>a2023110400008</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>('in2023110400047','a2023110400008','I47','3'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data CSV/group_instansi.xlsx
+++ b/Data CSV/group_instansi.xlsx
@@ -5,31 +5,43 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_app\ta_elaine\Data CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELAINE\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E662BA-CD7F-4319-9802-960CC1F968C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF04C0CE-0AE0-4AA6-8149-65187E752667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
+    <workbookView xWindow="3390" yWindow="345" windowWidth="20310" windowHeight="14205" activeTab="2" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
   </bookViews>
   <sheets>
     <sheet name="grup_instansi" sheetId="1" r:id="rId1"/>
     <sheet name="instansi" sheetId="2" r:id="rId2"/>
-    <sheet name="domain" sheetId="3" r:id="rId3"/>
-    <sheet name="aspek" sheetId="4" r:id="rId4"/>
-    <sheet name="indikator" sheetId="5" r:id="rId5"/>
+    <sheet name="isi" sheetId="6" r:id="rId3"/>
+    <sheet name="domain" sheetId="3" r:id="rId4"/>
+    <sheet name="aspek" sheetId="4" r:id="rId5"/>
+    <sheet name="indikator" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -512,6 +524,21 @@
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO `indikator`(`id`, `aspek`, `nama`, `bobot`) VALUES </t>
+  </si>
+  <si>
+    <t>i2023110200001</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indikator </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>INSERT INTO `isi`(`instansi`, `indikator`, `value`, `year`) VALUES</t>
   </si>
 </sst>
 </file>
@@ -885,7 +912,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,6 +2120,935 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E260E74E-0EDD-48AC-B8A8-DF71CA27A0DF}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="str">
+        <f>indikator!A2</f>
+        <v>in2023110400001</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"'),"</f>
+        <v>('i2023110200001','in2023110400001','3','2022'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="str">
+        <f>indikator!A3</f>
+        <v>in2023110400002</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E48" si="0">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"'),"</f>
+        <v>('i2023110200001','in2023110400002','3','2022'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="str">
+        <f>indikator!A4</f>
+        <v>in2023110400003</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400003','3','2022'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="str">
+        <f>indikator!A5</f>
+        <v>in2023110400004</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400004','3','2022'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="str">
+        <f>indikator!A6</f>
+        <v>in2023110400005</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400005','3','2022'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="str">
+        <f>indikator!A7</f>
+        <v>in2023110400006</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400006','3','2022'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="str">
+        <f>indikator!A8</f>
+        <v>in2023110400007</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400007','3','2022'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="str">
+        <f>indikator!A9</f>
+        <v>in2023110400008</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400008','3','2022'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="str">
+        <f>indikator!A10</f>
+        <v>in2023110400009</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400009','2','2022'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="str">
+        <f>indikator!A11</f>
+        <v>in2023110400010</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400010','3','2022'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="str">
+        <f>indikator!A12</f>
+        <v>in2023110400011</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400011','1','2022'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="str">
+        <f>indikator!A13</f>
+        <v>in2023110400012</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400012','1','2022'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="str">
+        <f>indikator!A14</f>
+        <v>in2023110400013</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400013','3','2022'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="str">
+        <f>indikator!A15</f>
+        <v>in2023110400014</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400014','4','2022'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="str">
+        <f>indikator!A16</f>
+        <v>in2023110400015</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400015','3','2022'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="str">
+        <f>indikator!A17</f>
+        <v>in2023110400016</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400016','3','2022'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="str">
+        <f>indikator!A18</f>
+        <v>in2023110400017</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400017','3','2022'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="str">
+        <f>indikator!A19</f>
+        <v>in2023110400018</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400018','3','2022'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="str">
+        <f>indikator!A20</f>
+        <v>in2023110400019</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400019','3','2022'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="str">
+        <f>indikator!A21</f>
+        <v>in2023110400020</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400020','4','2022'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="str">
+        <f>indikator!A22</f>
+        <v>in2023110400021</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400021','2','2022'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="str">
+        <f>indikator!A23</f>
+        <v>in2023110400022</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400022','4','2022'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="str">
+        <f>indikator!A24</f>
+        <v>in2023110400023</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400023','2','2022'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="str">
+        <f>indikator!A25</f>
+        <v>in2023110400024</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400024','4','2022'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="str">
+        <f>indikator!A26</f>
+        <v>in2023110400025</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400025','2','2022'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="str">
+        <f>indikator!A27</f>
+        <v>in2023110400026</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400026','3','2022'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="str">
+        <f>indikator!A28</f>
+        <v>in2023110400027</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400027','1','2022'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="str">
+        <f>indikator!A29</f>
+        <v>in2023110400028</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400028','2','2022'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="str">
+        <f>indikator!A30</f>
+        <v>in2023110400029</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400029','1','2022'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="str">
+        <f>indikator!A31</f>
+        <v>in2023110400030</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400030','1','2022'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="str">
+        <f>indikator!A32</f>
+        <v>in2023110400031</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400031','1','2022'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="str">
+        <f>indikator!A33</f>
+        <v>in2023110400032</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400032','3','2022'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="str">
+        <f>indikator!A34</f>
+        <v>in2023110400033</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400033','3','2022'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="str">
+        <f>indikator!A35</f>
+        <v>in2023110400034</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400034','3','2022'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="str">
+        <f>indikator!A36</f>
+        <v>in2023110400035</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400035','3','2022'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="str">
+        <f>indikator!A37</f>
+        <v>in2023110400036</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400036','4','2022'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="str">
+        <f>indikator!A38</f>
+        <v>in2023110400037</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400037','4','2022'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="str">
+        <f>indikator!A39</f>
+        <v>in2023110400038</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400038','4','2022'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="str">
+        <f>indikator!A40</f>
+        <v>in2023110400039</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2022</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400039','4','2022'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="str">
+        <f>indikator!A41</f>
+        <v>in2023110400040</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2022</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400040','4','2022'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="str">
+        <f>indikator!A42</f>
+        <v>in2023110400041</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2022</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400041','3','2022'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="str">
+        <f>indikator!A43</f>
+        <v>in2023110400042</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400042','4','2022'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="str">
+        <f>indikator!A44</f>
+        <v>in2023110400043</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400043','1','2022'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="str">
+        <f>indikator!A45</f>
+        <v>in2023110400044</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400044','4','2022'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="str">
+        <f>indikator!A46</f>
+        <v>in2023110400045</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2022</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400045','3','2022'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="str">
+        <f>indikator!A47</f>
+        <v>in2023110400046</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2022</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400046','3','2022'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="str">
+        <f>indikator!A48</f>
+        <v>in2023110400047</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>('i2023110200001','in2023110400047','3','2022'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC1F24-0628-4A26-8699-87E031698904}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2190,12 +3146,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40786EE-2084-4767-8AA5-B1A19D186E9F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,12 +3344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1EB52E-1B19-42ED-AFDA-DFAD720665DF}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data CSV/group_instansi.xlsx
+++ b/Data CSV/group_instansi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELAINE\ta_elaine\Data CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_app\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF04C0CE-0AE0-4AA6-8149-65187E752667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D198F-804A-4F43-AFEE-0916F97B4F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="345" windowWidth="20310" windowHeight="14205" activeTab="2" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
   </bookViews>
   <sheets>
     <sheet name="grup_instansi" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -539,13 +528,217 @@
   </si>
   <si>
     <t>INSERT INTO `isi`(`instansi`, `indikator`, `value`, `year`) VALUES</t>
+  </si>
+  <si>
+    <t>gurp</t>
+  </si>
+  <si>
+    <t>Kementerian Koordinator Bidang Pembangunan Manusia dan Kebudayaan</t>
+  </si>
+  <si>
+    <t>Kementerian Koperasi dan Usaha Kecil dan Menengah</t>
+  </si>
+  <si>
+    <t>Kementerian Pemberdayaan Perempuan dan Perlindungan Anak</t>
+  </si>
+  <si>
+    <t>Kementerian Dalam Negeri</t>
+  </si>
+  <si>
+    <t>Kementerian Luar Negeri</t>
+  </si>
+  <si>
+    <t>Kementerian Hukum dan Hak Asasi Manusia</t>
+  </si>
+  <si>
+    <t>Kementerian Pertanian</t>
+  </si>
+  <si>
+    <t>Kementerian Energi dan Sumber Daya Mineral</t>
+  </si>
+  <si>
+    <t>Kementerian Perhubungan</t>
+  </si>
+  <si>
+    <t>Kementerian Ketenagakerjaan</t>
+  </si>
+  <si>
+    <t>Kementerian Perdagangan</t>
+  </si>
+  <si>
+    <t>Kementerian Agraria dan Tata Ruang/Badan Pertanahan Nasional</t>
+  </si>
+  <si>
+    <t>Kementerian Koordinator Bidang Perekonomian</t>
+  </si>
+  <si>
+    <t>Kementerian Koordinator Bidang Kemaritiman</t>
+  </si>
+  <si>
+    <t>Kementerian Badan Usaha Milik Negara</t>
+  </si>
+  <si>
+    <t>Kementerian Pendayagunaan Aparatur Negara dan Reformasi Birokrasi</t>
+  </si>
+  <si>
+    <t>Kementerian Desa, Pembangunan Daerah Tertinggal dan Transmigrasi</t>
+  </si>
+  <si>
+    <t>Kementerian Keuangan</t>
+  </si>
+  <si>
+    <t>Kementerian Pendidikan dan Kebudayaan</t>
+  </si>
+  <si>
+    <t>Kementerian Kesehatan</t>
+  </si>
+  <si>
+    <t>Kementerian Agama</t>
+  </si>
+  <si>
+    <t>Kementerian Sosial</t>
+  </si>
+  <si>
+    <t>Kementerian Lingkungan Hidup dan Kehutanan</t>
+  </si>
+  <si>
+    <t>Kementerian Kelautan dan Perikanan</t>
+  </si>
+  <si>
+    <t>Kementerian Komunikasi dan Informatika</t>
+  </si>
+  <si>
+    <t>Kementerian Pekerjaan Umum &amp; Perumahan Rakyat</t>
+  </si>
+  <si>
+    <t>Kementerian Pariwisata dan Ekonomi Kreatif/Badan Pariwisata dan Ekonomi Kreatif</t>
+  </si>
+  <si>
+    <t>Kementerian Sekretariat Negara</t>
+  </si>
+  <si>
+    <t>Kementerian Perencanaan Pembangunan Nasional/Badan Perencanaan Pembangunan Nasional</t>
+  </si>
+  <si>
+    <t>Kementerian Investasi/Badan Koordinasi Penanaman Modal</t>
+  </si>
+  <si>
+    <t>Kementerian Koordinator Bidang Politik, Hukum dan Keamanan</t>
+  </si>
+  <si>
+    <t>Kementerian Pemuda dan Olahraga</t>
+  </si>
+  <si>
+    <t>Kementerian Pertahanan</t>
+  </si>
+  <si>
+    <t>Kementerian Perindustrian</t>
+  </si>
+  <si>
+    <t>Badan Pembinaan Ideologi Pancasila</t>
+  </si>
+  <si>
+    <t>Badan Intelijen Negara</t>
+  </si>
+  <si>
+    <t>Majelis Permusyawaratan Rakyat</t>
+  </si>
+  <si>
+    <t>Dewan Perwakilan Rakyat</t>
+  </si>
+  <si>
+    <t>Komisi Yudisial</t>
+  </si>
+  <si>
+    <t>Dewan Perwakilan Daerah</t>
+  </si>
+  <si>
+    <t>Radio Republik Indonesia</t>
+  </si>
+  <si>
+    <t>Markas Besar Kepolisian Republik Indonesia</t>
+  </si>
+  <si>
+    <t>Kejaksaan Agung</t>
+  </si>
+  <si>
+    <t>Mahkamah Agung RI</t>
+  </si>
+  <si>
+    <t>Badan Pemeriksa Keuangan</t>
+  </si>
+  <si>
+    <t>Sekretariat Kabinet</t>
+  </si>
+  <si>
+    <t>Mahkamah Konstitusi</t>
+  </si>
+  <si>
+    <t>Televisi Republik Indonesia</t>
+  </si>
+  <si>
+    <t>Dewan Ketahanan Nasional</t>
+  </si>
+  <si>
+    <t>Komisi Pemilihan Umum</t>
+  </si>
+  <si>
+    <t>Komisi Pemberantasan Korupsi</t>
+  </si>
+  <si>
+    <t>Pusat Pelaporan dan Analisis Transaksi Keuangan</t>
+  </si>
+  <si>
+    <t>Ombudsman Republik Indonesia</t>
+  </si>
+  <si>
+    <t>Badan Nasional Pengelola Perbatasan</t>
+  </si>
+  <si>
+    <t>Komisi Aparatur Sipil Negara</t>
+  </si>
+  <si>
+    <t>Badan Amil Zakat Nasional</t>
+  </si>
+  <si>
+    <t>Komisi Pengawas Persaingan Usaha</t>
+  </si>
+  <si>
+    <t>Badan Pengawas Pemilihan Umum</t>
+  </si>
+  <si>
+    <t>Komisi Penyiaran Indonesia</t>
+  </si>
+  <si>
+    <t>Komisi Informasi Pusat</t>
+  </si>
+  <si>
+    <t>Komisi Kejaksaan</t>
+  </si>
+  <si>
+    <t>Dewan Pers</t>
+  </si>
+  <si>
+    <t>Dewan Jaminan Sosial Nasional</t>
+  </si>
+  <si>
+    <t>Lembaga Perlindungan Saksi Dan Korban</t>
+  </si>
+  <si>
+    <t>Lembaga Sensor Film</t>
+  </si>
+  <si>
+    <t>Konsil Kedokteran Indonesia</t>
+  </si>
+  <si>
+    <t>Kantor Staf Presiden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +762,16 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -587,17 +790,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FF8D6C84-28C9-43B5-857A-6BC49C5FD888}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,7 +1118,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,12 +2315,902 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06365F83-EE82-4A4F-85D6-D04380E57CAA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"i20231106"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A2)-ROW($A$1)),"0"),5)</f>
+        <v>i2023110600001</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="0">"i20231106"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A3)-ROW($A$1)),"0"),5)</f>
+        <v>i2023110600002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600004</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600008</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600009</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600012</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600014</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600015</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600016</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600017</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600018</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600019</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600020</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600021</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600022</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600023</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600024</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600025</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600026</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600027</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600028</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600029</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600030</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600031</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600032</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600033</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600034</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" t="str">
+        <f>grup_instansi!$A$2</f>
+        <v>gi2023110400001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600035</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600036</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600037</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600038</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600039</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600040</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600041</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600042</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600043</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600044</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600045</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600046</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600047</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600048</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="str">
+        <f>grup_instansi!$A$3</f>
+        <v>gi2023110400002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600049</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600050</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600051</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600052</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600053</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600054</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600055</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600056</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600057</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600058</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600059</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600060</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600061</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600062</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600063</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600064</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>i2023110600065</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A68" si="1">"i20231106"&amp;RIGHT(TEXT("G00000"&amp;(ROW(A67)-ROW($A$1)),"0"),5)</f>
+        <v>i2023110600066</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>i2023110600067</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" t="str">
+        <f>grup_instansi!$A$4</f>
+        <v>gi2023110400003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2123,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E260E74E-0EDD-48AC-B8A8-DF71CA27A0DF}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>

--- a/Data CSV/group_instansi.xlsx
+++ b/Data CSV/group_instansi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_app\ta_elaine\Data CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonapp\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D198F-804A-4F43-AFEE-0916F97B4F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3676674-1A79-456B-AC70-90CD3E556A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
+    <workbookView minimized="1" xWindow="22005" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{9603F020-9C66-4CC6-880B-AADE8A662A72}"/>
   </bookViews>
   <sheets>
     <sheet name="grup_instansi" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2317,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06365F83-EE82-4A4F-85D6-D04380E57CAA}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -4148,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC1F24-0628-4A26-8699-87E031698904}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,11 +4237,11 @@
         <v>96</v>
       </c>
       <c r="C5" s="3">
-        <v>14.5</v>
+        <v>45.5</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
-        <v>('d2023110400004','Domain 4','14.5'),</v>
+        <v>('d2023110400004','Domain 4','45.5'),</v>
       </c>
     </row>
   </sheetData>
